--- a/Code/Results/Cases/Case_1_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.10971278974335</v>
+        <v>21.68650257129698</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.108007991717191</v>
+        <v>8.667714164980886</v>
       </c>
       <c r="E2">
-        <v>15.7484900735772</v>
+        <v>15.09451614514763</v>
       </c>
       <c r="F2">
-        <v>25.66235373250898</v>
+        <v>37.60032586645614</v>
       </c>
       <c r="G2">
-        <v>40.17113676810851</v>
+        <v>44.7401163386219</v>
       </c>
       <c r="H2">
-        <v>11.71022647317394</v>
+        <v>17.97516079517596</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.761491730935507</v>
+        <v>11.10524286567828</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.35959368604284</v>
+        <v>14.04779170350033</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.61848193792456</v>
+        <v>21.23538984763666</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.789387055190683</v>
+        <v>8.576648291965904</v>
       </c>
       <c r="E3">
-        <v>15.11193553963998</v>
+        <v>14.89523465863782</v>
       </c>
       <c r="F3">
-        <v>25.09377471956436</v>
+        <v>37.78666690255565</v>
       </c>
       <c r="G3">
-        <v>38.15980156997441</v>
+        <v>44.70362448172449</v>
       </c>
       <c r="H3">
-        <v>11.50795609665624</v>
+        <v>18.04869035474507</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.489916377590104</v>
+        <v>11.04065086285119</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.19070852028404</v>
+        <v>13.64899217655509</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.66176997369471</v>
+        <v>20.9558676951086</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.588911290632125</v>
+        <v>8.519833652220445</v>
       </c>
       <c r="E4">
-        <v>14.71074213469533</v>
+        <v>14.77187368869249</v>
       </c>
       <c r="F4">
-        <v>24.7983118779253</v>
+        <v>37.91666928339373</v>
       </c>
       <c r="G4">
-        <v>36.96453303616354</v>
+        <v>44.70560850360653</v>
       </c>
       <c r="H4">
-        <v>11.40322378146973</v>
+        <v>18.09974820118127</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.321656071353178</v>
+        <v>11.00156313243735</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.43409768196085</v>
+        <v>13.39863237776992</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.26167860455572</v>
+        <v>20.84146367270202</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.506031778461879</v>
+        <v>8.496466450573717</v>
       </c>
       <c r="E5">
-        <v>14.5447836682993</v>
+        <v>14.72139324218857</v>
       </c>
       <c r="F5">
-        <v>24.69088745255478</v>
+        <v>37.97353159999022</v>
       </c>
       <c r="G5">
-        <v>36.4878857350532</v>
+        <v>44.71251316598977</v>
       </c>
       <c r="H5">
-        <v>11.36523093799972</v>
+        <v>18.12203120849213</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.252761125896344</v>
+        <v>10.98578788225719</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.11589059913663</v>
+        <v>13.29535807194346</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.19463065117712</v>
+        <v>20.82244121038295</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.492199396458737</v>
+        <v>8.492573710785805</v>
       </c>
       <c r="E6">
-        <v>14.51708167043204</v>
+        <v>14.71299956391199</v>
       </c>
       <c r="F6">
-        <v>24.67381742892949</v>
+        <v>37.98320718319436</v>
       </c>
       <c r="G6">
-        <v>36.40938327713037</v>
+        <v>44.71402661264512</v>
       </c>
       <c r="H6">
-        <v>11.35919897575874</v>
+        <v>18.12582017511284</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.241303062403183</v>
+        <v>10.98317794726359</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.06245308534124</v>
+        <v>13.27813793047807</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65641540757549</v>
+        <v>20.95432662245724</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.587798289660418</v>
+        <v>8.519519368272348</v>
       </c>
       <c r="E7">
-        <v>14.70851376251363</v>
+        <v>14.77119368558188</v>
       </c>
       <c r="F7">
-        <v>24.79681128470348</v>
+        <v>37.91742046352236</v>
       </c>
       <c r="G7">
-        <v>36.95806191662429</v>
+        <v>44.70567699517306</v>
       </c>
       <c r="H7">
-        <v>11.40269270553818</v>
+        <v>18.10004275236222</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.320728181514083</v>
+        <v>11.00134974874028</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.42984636247448</v>
+        <v>13.39724446807969</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.60411161944613</v>
+        <v>21.53156888854253</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.999168422688562</v>
+        <v>8.636508260332173</v>
       </c>
       <c r="E8">
-        <v>15.53122486185948</v>
+        <v>15.02603669517294</v>
       </c>
       <c r="F8">
-        <v>25.45488559404038</v>
+        <v>37.6613204080066</v>
       </c>
       <c r="G8">
-        <v>39.46963754271709</v>
+        <v>44.72245239986478</v>
       </c>
       <c r="H8">
-        <v>11.63632338174717</v>
+        <v>17.99928132082286</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.668195741402617</v>
+        <v>11.08285855523557</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.96457537791877</v>
+        <v>13.9115019775876</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09570526981932</v>
+        <v>22.63745270749197</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.766675706820488</v>
+        <v>8.858288827774947</v>
       </c>
       <c r="E9">
-        <v>17.05803550296457</v>
+        <v>15.51603123333377</v>
       </c>
       <c r="F9">
-        <v>27.1907549528871</v>
+        <v>37.28429800972787</v>
       </c>
       <c r="G9">
-        <v>44.6949036543603</v>
+        <v>44.95005716379584</v>
       </c>
       <c r="H9">
-        <v>12.2575518289821</v>
+        <v>17.8490080276496</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.33567444697178</v>
+        <v>11.24681419500431</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.67049015625297</v>
+        <v>14.87107429028142</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.47275058778227</v>
+        <v>23.42649031783405</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.306704105502408</v>
+        <v>9.015931545344916</v>
       </c>
       <c r="E10">
-        <v>18.12311206264247</v>
+        <v>15.86772923196177</v>
       </c>
       <c r="F10">
-        <v>28.76140897091136</v>
+        <v>37.08561084824171</v>
       </c>
       <c r="G10">
-        <v>48.70719215222859</v>
+        <v>45.23690503117132</v>
       </c>
       <c r="H10">
-        <v>12.82466114503552</v>
+        <v>17.76801196724085</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.81570747693662</v>
+        <v>11.36921161687666</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.48138168246939</v>
+        <v>15.5398763351911</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.56716556294293</v>
+        <v>23.77888668752309</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.547524259316633</v>
+        <v>9.086364182415227</v>
       </c>
       <c r="E11">
-        <v>18.59507289986956</v>
+        <v>16.0254450090464</v>
       </c>
       <c r="F11">
-        <v>29.54473945854232</v>
+        <v>37.01263144562117</v>
       </c>
       <c r="G11">
-        <v>50.61757382453138</v>
+        <v>45.39335986630829</v>
       </c>
       <c r="H11">
-        <v>13.10907808110079</v>
+        <v>17.73766517537328</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.03164429505648</v>
+        <v>11.42519103154741</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.26878447247623</v>
+        <v>15.83511098279994</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.97474608675073</v>
+        <v>23.91127714585868</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.638069990660007</v>
+        <v>9.112840288403959</v>
       </c>
       <c r="E12">
-        <v>18.77200202463268</v>
+        <v>16.08480256062649</v>
       </c>
       <c r="F12">
-        <v>29.85166793556304</v>
+        <v>36.98753003667197</v>
       </c>
       <c r="G12">
-        <v>51.35554563969538</v>
+        <v>45.45632195269073</v>
       </c>
       <c r="H12">
-        <v>13.22078895554555</v>
+        <v>17.72711701192494</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.11306275236108</v>
+        <v>11.44642158411806</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.56191496631548</v>
+        <v>15.94552895789311</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.88726680287308</v>
+        <v>23.88281311767533</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.618597168702305</v>
+        <v>9.107147041514477</v>
       </c>
       <c r="E13">
-        <v>18.73397637564805</v>
+        <v>16.07203573380224</v>
       </c>
       <c r="F13">
-        <v>29.78510043045495</v>
+        <v>36.9928228730083</v>
       </c>
       <c r="G13">
-        <v>51.19639486986286</v>
+        <v>45.4425970610561</v>
       </c>
       <c r="H13">
-        <v>13.19654822760113</v>
+        <v>17.72934664564195</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.09554339335818</v>
+        <v>11.44184793757781</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.49900503666975</v>
+        <v>15.92181116450019</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.60083325084885</v>
+        <v>23.78980028677295</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.554986143110396</v>
+        <v>9.088546362628461</v>
       </c>
       <c r="E14">
-        <v>18.60966471052064</v>
+        <v>16.03033594409023</v>
       </c>
       <c r="F14">
-        <v>29.56978177748531</v>
+        <v>37.01051537067022</v>
       </c>
       <c r="G14">
-        <v>50.6781911338164</v>
+        <v>45.39846545845712</v>
       </c>
       <c r="H14">
-        <v>13.11818701000423</v>
+        <v>17.73677841213708</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.0383496660047</v>
+        <v>11.42693709521705</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.29300037148512</v>
+        <v>15.84422327345231</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.42450001792875</v>
+        <v>23.73268668034313</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.515939984593597</v>
+        <v>9.077127162214955</v>
       </c>
       <c r="E15">
-        <v>18.53328768576625</v>
+        <v>16.004744821552</v>
       </c>
       <c r="F15">
-        <v>29.43924676954029</v>
+        <v>37.02168349012705</v>
       </c>
       <c r="G15">
-        <v>50.36139581012281</v>
+        <v>45.37191681198547</v>
       </c>
       <c r="H15">
-        <v>13.07071699213784</v>
+        <v>17.7414537168392</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.00327114515043</v>
+        <v>11.41780766742662</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.1661659919015</v>
+        <v>15.79651620808397</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.40025542085835</v>
+        <v>23.40331886293708</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.290872235530795</v>
+        <v>9.011301891749142</v>
       </c>
       <c r="E16">
-        <v>18.09201619915299</v>
+        <v>15.85737301446342</v>
       </c>
       <c r="F16">
-        <v>28.71163471256821</v>
+        <v>37.09073317682564</v>
       </c>
       <c r="G16">
-        <v>48.58616264397861</v>
+        <v>45.22720155038188</v>
       </c>
       <c r="H16">
-        <v>12.80662304895753</v>
+        <v>17.77012675032693</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.80154606560136</v>
+        <v>11.36555834808991</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.42920668020042</v>
+        <v>15.52039328071836</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78942179839855</v>
+        <v>23.19950370204453</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.15158903899629</v>
+        <v>8.970584382694174</v>
       </c>
       <c r="E17">
-        <v>17.81809620339889</v>
+        <v>15.76635464683401</v>
       </c>
       <c r="F17">
-        <v>28.28316910501352</v>
+        <v>37.1375735239909</v>
       </c>
       <c r="G17">
-        <v>47.52990599239407</v>
+        <v>45.1450645146399</v>
       </c>
       <c r="H17">
-        <v>12.65152255098202</v>
+        <v>17.78938772872356</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.67716566799963</v>
+        <v>11.33357429209502</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.9679159332086</v>
+        <v>15.34863009300971</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43771191441089</v>
+        <v>23.0816652884636</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.071017305307791</v>
+        <v>8.947044934263475</v>
       </c>
       <c r="E18">
-        <v>17.65936111084632</v>
+        <v>15.71379155358881</v>
       </c>
       <c r="F18">
-        <v>28.04318026592588</v>
+        <v>37.16615123467374</v>
       </c>
       <c r="G18">
-        <v>46.92603414367345</v>
+        <v>45.10026725876005</v>
       </c>
       <c r="H18">
-        <v>12.56478800460462</v>
+        <v>17.80107730960734</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.60539578554698</v>
+        <v>11.31520681523676</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.69915673709778</v>
+        <v>15.24899324746869</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.3179474084794</v>
+        <v>23.0416661681664</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.043656971823163</v>
+        <v>8.939054648668911</v>
       </c>
       <c r="E19">
-        <v>17.60541295777822</v>
+        <v>15.69595944213468</v>
       </c>
       <c r="F19">
-        <v>27.96302104515063</v>
+        <v>37.17610722074195</v>
       </c>
       <c r="G19">
-        <v>46.72219362745558</v>
+        <v>45.08552012373673</v>
       </c>
       <c r="H19">
-        <v>12.53584027688247</v>
+        <v>17.80513989033121</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.58105658045004</v>
+        <v>11.30899319682431</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.60756377577856</v>
+        <v>15.21511586216892</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85419257196596</v>
+        <v>23.22126408547167</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.166463261545182</v>
+        <v>8.974931313237132</v>
       </c>
       <c r="E20">
-        <v>17.84737795157676</v>
+        <v>15.7760659089889</v>
       </c>
       <c r="F20">
-        <v>28.32810936620947</v>
+        <v>37.13241769647516</v>
       </c>
       <c r="G20">
-        <v>47.64196548020567</v>
+        <v>45.15355510932926</v>
       </c>
       <c r="H20">
-        <v>12.66777565620073</v>
+        <v>17.78727404396779</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.69042998940414</v>
+        <v>11.33697613601047</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.01737553103453</v>
+        <v>15.36700249539161</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.6851495595084</v>
+        <v>23.81714989522145</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.573687336067154</v>
+        <v>9.094015218147575</v>
       </c>
       <c r="E21">
-        <v>18.64622645827804</v>
+        <v>16.04259442010239</v>
       </c>
       <c r="F21">
-        <v>29.63274314357014</v>
+        <v>37.00524963047065</v>
       </c>
       <c r="G21">
-        <v>50.83026989841692</v>
+        <v>45.41132732027985</v>
       </c>
       <c r="H21">
-        <v>13.14109306219323</v>
+        <v>17.73456984580611</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.05515836251819</v>
+        <v>11.43131597891505</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.35364414239066</v>
+        <v>15.86705083781354</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.85901890348245</v>
+        <v>24.20040248567215</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.836093847145554</v>
+        <v>9.170700677810578</v>
       </c>
       <c r="E22">
-        <v>19.15790052091072</v>
+        <v>16.21463587672051</v>
       </c>
       <c r="F22">
-        <v>30.54565349696249</v>
+        <v>36.93692341481859</v>
       </c>
       <c r="G22">
-        <v>52.98744683422753</v>
+        <v>45.60144090793676</v>
       </c>
       <c r="H22">
-        <v>13.47391034794387</v>
+        <v>17.70562799040234</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.29148515696855</v>
+        <v>11.49315614340208</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.19769064703803</v>
+        <v>16.18577819226134</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.23605505057874</v>
+        <v>23.99645567411907</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.696363341658461</v>
+        <v>9.129880373515281</v>
       </c>
       <c r="E23">
-        <v>18.88575217385342</v>
+        <v>16.12302339177628</v>
       </c>
       <c r="F23">
-        <v>30.05275492627082</v>
+        <v>36.97202748309454</v>
       </c>
       <c r="G23">
-        <v>51.83340681003996</v>
+        <v>45.49800173094974</v>
       </c>
       <c r="H23">
-        <v>13.29405705170624</v>
+        <v>17.7205683703766</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.16553756885111</v>
+        <v>11.46013765368379</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.74981754215828</v>
+        <v>16.01643312996597</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82492249440911</v>
+        <v>23.21142827051629</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.159740173750615</v>
+        <v>8.972966471286721</v>
       </c>
       <c r="E24">
-        <v>17.83414358227832</v>
+        <v>15.7716761776735</v>
       </c>
       <c r="F24">
-        <v>28.30777215037233</v>
+        <v>37.13474351357461</v>
       </c>
       <c r="G24">
-        <v>47.59129287184179</v>
+        <v>45.14970895870773</v>
       </c>
       <c r="H24">
-        <v>12.66042005881749</v>
+        <v>17.78822772224484</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.68443400520745</v>
+        <v>11.33543809744562</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.99502594013421</v>
+        <v>15.35869909128308</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.186269320867</v>
+        <v>22.34187976437507</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.563291379499411</v>
+        <v>8.799176042018562</v>
       </c>
       <c r="E25">
-        <v>16.65476309133701</v>
+        <v>15.38476587250175</v>
       </c>
       <c r="F25">
-        <v>26.67088276563646</v>
+        <v>37.37268040220974</v>
       </c>
       <c r="G25">
-        <v>43.250777654751</v>
+        <v>44.86750373065513</v>
       </c>
       <c r="H25">
-        <v>12.07084843716044</v>
+        <v>17.88453583877779</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.15682248240221</v>
+        <v>11.20207752288216</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.97021018291921</v>
+        <v>14.61741554619385</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.68650257129698</v>
+        <v>24.10971278974332</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.667714164980886</v>
+        <v>8.108007991717068</v>
       </c>
       <c r="E2">
-        <v>15.09451614514763</v>
+        <v>15.74849007357715</v>
       </c>
       <c r="F2">
-        <v>37.60032586645614</v>
+        <v>25.662353732509</v>
       </c>
       <c r="G2">
-        <v>44.7401163386219</v>
+        <v>40.17113676810862</v>
       </c>
       <c r="H2">
-        <v>17.97516079517596</v>
+        <v>11.7102264731739</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.10524286567828</v>
+        <v>9.761491730935481</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.04779170350033</v>
+        <v>17.35959368604283</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.23538984763666</v>
+        <v>22.61848193792456</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.576648291965904</v>
+        <v>7.789387055190525</v>
       </c>
       <c r="E3">
-        <v>14.89523465863782</v>
+        <v>15.11193553963996</v>
       </c>
       <c r="F3">
-        <v>37.78666690255565</v>
+        <v>25.09377471956406</v>
       </c>
       <c r="G3">
-        <v>44.70362448172449</v>
+        <v>38.15980156997426</v>
       </c>
       <c r="H3">
-        <v>18.04869035474507</v>
+        <v>11.50795609665608</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.04065086285119</v>
+        <v>9.489916377590166</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.64899217655509</v>
+        <v>16.1907085202841</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.9558676951086</v>
+        <v>21.6617699736947</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.519833652220445</v>
+        <v>7.588911290632129</v>
       </c>
       <c r="E4">
-        <v>14.77187368869249</v>
+        <v>14.71074213469528</v>
       </c>
       <c r="F4">
-        <v>37.91666928339373</v>
+        <v>24.79831187792522</v>
       </c>
       <c r="G4">
-        <v>44.70560850360653</v>
+        <v>36.96453303616352</v>
       </c>
       <c r="H4">
-        <v>18.09974820118127</v>
+        <v>11.40322378146966</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.00156313243735</v>
+        <v>9.321656071353097</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.39863237776992</v>
+        <v>15.43409768196086</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.84146367270202</v>
+        <v>21.2616786045557</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.496466450573717</v>
+        <v>7.506031778461837</v>
       </c>
       <c r="E5">
-        <v>14.72139324218857</v>
+        <v>14.54478366829937</v>
       </c>
       <c r="F5">
-        <v>37.97353159999022</v>
+        <v>24.69088745255465</v>
       </c>
       <c r="G5">
-        <v>44.71251316598977</v>
+        <v>36.4878857350532</v>
       </c>
       <c r="H5">
-        <v>18.12203120849213</v>
+        <v>11.3652309379996</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.98578788225719</v>
+        <v>9.252761125896422</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.29535807194346</v>
+        <v>15.11589059913661</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.82244121038295</v>
+        <v>21.19463065117712</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.492573710785805</v>
+        <v>7.492199396458767</v>
       </c>
       <c r="E6">
-        <v>14.71299956391199</v>
+        <v>14.51708167043215</v>
       </c>
       <c r="F6">
-        <v>37.98320718319436</v>
+        <v>24.67381742892928</v>
       </c>
       <c r="G6">
-        <v>44.71402661264512</v>
+        <v>36.40938327713014</v>
       </c>
       <c r="H6">
-        <v>18.12582017511284</v>
+        <v>11.35919897575858</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.98317794726359</v>
+        <v>9.241303062403215</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.27813793047807</v>
+        <v>15.06245308534127</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.95432662245724</v>
+        <v>21.65641540757547</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.519519368272348</v>
+        <v>7.587798289660361</v>
       </c>
       <c r="E7">
-        <v>14.77119368558188</v>
+        <v>14.70851376251357</v>
       </c>
       <c r="F7">
-        <v>37.91742046352236</v>
+        <v>24.79681128470346</v>
       </c>
       <c r="G7">
-        <v>44.70567699517306</v>
+        <v>36.95806191662424</v>
       </c>
       <c r="H7">
-        <v>18.10004275236222</v>
+        <v>11.40269270553822</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.00134974874028</v>
+        <v>9.320728181514021</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.39724446807969</v>
+        <v>15.42984636247451</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.53156888854253</v>
+        <v>23.60411161944613</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.636508260332173</v>
+        <v>7.999168422688611</v>
       </c>
       <c r="E8">
-        <v>15.02603669517294</v>
+        <v>15.53122486185947</v>
       </c>
       <c r="F8">
-        <v>37.6613204080066</v>
+        <v>25.45488559404042</v>
       </c>
       <c r="G8">
-        <v>44.72245239986478</v>
+        <v>39.46963754271715</v>
       </c>
       <c r="H8">
-        <v>17.99928132082286</v>
+        <v>11.63632338174719</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.08285855523557</v>
+        <v>9.668195741402606</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.9115019775876</v>
+        <v>16.96457537791877</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.63745270749197</v>
+        <v>27.09570526981928</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.858288827774947</v>
+        <v>8.766675706820385</v>
       </c>
       <c r="E9">
-        <v>15.51603123333377</v>
+        <v>17.05803550296456</v>
       </c>
       <c r="F9">
-        <v>37.28429800972787</v>
+        <v>27.19075495288704</v>
       </c>
       <c r="G9">
-        <v>44.95005716379584</v>
+        <v>44.69490365436017</v>
       </c>
       <c r="H9">
-        <v>17.8490080276496</v>
+        <v>12.25755182898205</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.24681419500431</v>
+        <v>10.33567444697182</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.87107429028142</v>
+        <v>19.670490156253</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.42649031783405</v>
+        <v>29.47275058778223</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.015931545344916</v>
+        <v>9.306704105502371</v>
       </c>
       <c r="E10">
-        <v>15.86772923196177</v>
+        <v>18.12311206264245</v>
       </c>
       <c r="F10">
-        <v>37.08561084824171</v>
+        <v>28.76140897091137</v>
       </c>
       <c r="G10">
-        <v>45.23690503117132</v>
+        <v>48.70719215222857</v>
       </c>
       <c r="H10">
-        <v>17.76801196724085</v>
+        <v>12.82466114503554</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.36921161687666</v>
+        <v>10.81570747693663</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.5398763351911</v>
+        <v>21.48138168246932</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.77888668752309</v>
+        <v>30.56716556294293</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.086364182415227</v>
+        <v>9.547524259316646</v>
       </c>
       <c r="E11">
-        <v>16.0254450090464</v>
+        <v>18.59507289986962</v>
       </c>
       <c r="F11">
-        <v>37.01263144562117</v>
+        <v>29.54473945854231</v>
       </c>
       <c r="G11">
-        <v>45.39335986630829</v>
+        <v>50.61757382453141</v>
       </c>
       <c r="H11">
-        <v>17.73766517537328</v>
+        <v>13.10907808110081</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.42519103154741</v>
+        <v>11.03164429505647</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.83511098279994</v>
+        <v>22.26878447247622</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.91127714585868</v>
+        <v>30.97474608675073</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.112840288403959</v>
+        <v>9.638069990660163</v>
       </c>
       <c r="E12">
-        <v>16.08480256062649</v>
+        <v>18.77200202463276</v>
       </c>
       <c r="F12">
-        <v>36.98753003667197</v>
+        <v>29.85166793556298</v>
       </c>
       <c r="G12">
-        <v>45.45632195269073</v>
+        <v>51.35554563969524</v>
       </c>
       <c r="H12">
-        <v>17.72711701192494</v>
+        <v>13.22078895554551</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.44642158411806</v>
+        <v>11.11306275236106</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.94552895789311</v>
+        <v>22.56191496631546</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.88281311767533</v>
+        <v>30.8872668028731</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.107147041514477</v>
+        <v>9.61859716870231</v>
       </c>
       <c r="E13">
-        <v>16.07203573380224</v>
+        <v>18.73397637564807</v>
       </c>
       <c r="F13">
-        <v>36.9928228730083</v>
+        <v>29.78510043045497</v>
       </c>
       <c r="G13">
-        <v>45.4425970610561</v>
+        <v>51.19639486986306</v>
       </c>
       <c r="H13">
-        <v>17.72934664564195</v>
+        <v>13.19654822760111</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.44184793757781</v>
+        <v>11.09554339335819</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.92181116450019</v>
+        <v>22.49900503666973</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.78980028677295</v>
+        <v>30.60083325084879</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.088546362628461</v>
+        <v>9.554986143110458</v>
       </c>
       <c r="E14">
-        <v>16.03033594409023</v>
+        <v>18.60966471052061</v>
       </c>
       <c r="F14">
-        <v>37.01051537067022</v>
+        <v>29.56978177748536</v>
       </c>
       <c r="G14">
-        <v>45.39846545845712</v>
+        <v>50.67819113381626</v>
       </c>
       <c r="H14">
-        <v>17.73677841213708</v>
+        <v>13.11818701000425</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.42693709521705</v>
+        <v>11.03834966600472</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.84422327345231</v>
+        <v>22.29300037148505</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.73268668034313</v>
+        <v>30.4245000179288</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.077127162214955</v>
+        <v>9.51593998459351</v>
       </c>
       <c r="E15">
-        <v>16.004744821552</v>
+        <v>18.53328768576631</v>
       </c>
       <c r="F15">
-        <v>37.02168349012705</v>
+        <v>29.43924676954023</v>
       </c>
       <c r="G15">
-        <v>45.37191681198547</v>
+        <v>50.36139581012294</v>
       </c>
       <c r="H15">
-        <v>17.7414537168392</v>
+        <v>13.0707169921378</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.41780766742662</v>
+        <v>11.00327114515046</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.79651620808397</v>
+        <v>22.1661659919015</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.40331886293708</v>
+        <v>29.40025542085836</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.011301891749142</v>
+        <v>9.290872235530854</v>
       </c>
       <c r="E16">
-        <v>15.85737301446342</v>
+        <v>18.09201619915304</v>
       </c>
       <c r="F16">
-        <v>37.09073317682564</v>
+        <v>28.71163471256826</v>
       </c>
       <c r="G16">
-        <v>45.22720155038188</v>
+        <v>48.58616264397861</v>
       </c>
       <c r="H16">
-        <v>17.77012675032693</v>
+        <v>12.80662304895758</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.36555834808991</v>
+        <v>10.80154606560139</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.52039328071836</v>
+        <v>21.42920668020039</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.19950370204453</v>
+        <v>28.78942179839855</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.970584382694174</v>
+        <v>9.151589038996242</v>
       </c>
       <c r="E17">
-        <v>15.76635464683401</v>
+        <v>17.81809620339887</v>
       </c>
       <c r="F17">
-        <v>37.1375735239909</v>
+        <v>28.28316910501344</v>
       </c>
       <c r="G17">
-        <v>45.1450645146399</v>
+        <v>47.52990599239398</v>
       </c>
       <c r="H17">
-        <v>17.78938772872356</v>
+        <v>12.65152255098199</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.33357429209502</v>
+        <v>10.6771656679996</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.34863009300971</v>
+        <v>20.96791593320863</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.0816652884636</v>
+        <v>28.43771191441089</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.947044934263475</v>
+        <v>9.071017305307841</v>
       </c>
       <c r="E18">
-        <v>15.71379155358881</v>
+        <v>17.65936111084639</v>
       </c>
       <c r="F18">
-        <v>37.16615123467374</v>
+        <v>28.04318026592586</v>
       </c>
       <c r="G18">
-        <v>45.10026725876005</v>
+        <v>46.92603414367348</v>
       </c>
       <c r="H18">
-        <v>17.80107730960734</v>
+        <v>12.5647880046046</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.31520681523676</v>
+        <v>10.605395785547</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.24899324746869</v>
+        <v>20.69915673709783</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.0416661681664</v>
+        <v>28.31794740847941</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.939054648668911</v>
+        <v>9.043656971823111</v>
       </c>
       <c r="E19">
-        <v>15.69595944213468</v>
+        <v>17.60541295777828</v>
       </c>
       <c r="F19">
-        <v>37.17610722074195</v>
+        <v>27.96302104515048</v>
       </c>
       <c r="G19">
-        <v>45.08552012373673</v>
+        <v>46.72219362745545</v>
       </c>
       <c r="H19">
-        <v>17.80513989033121</v>
+        <v>12.53584027688238</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.30899319682431</v>
+        <v>10.58105658045005</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.21511586216892</v>
+        <v>20.60756377577862</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.22126408547167</v>
+        <v>28.85419257196596</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.974931313237132</v>
+        <v>9.166463261545275</v>
       </c>
       <c r="E20">
-        <v>15.7760659089889</v>
+        <v>17.84737795157683</v>
       </c>
       <c r="F20">
-        <v>37.13241769647516</v>
+        <v>28.32810936620949</v>
       </c>
       <c r="G20">
-        <v>45.15355510932926</v>
+        <v>47.64196548020565</v>
       </c>
       <c r="H20">
-        <v>17.78727404396779</v>
+        <v>12.66777565620072</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.33697613601047</v>
+        <v>10.69042998940418</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.36700249539161</v>
+        <v>21.01737553103447</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.81714989522145</v>
+        <v>30.68514955950834</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.094015218147575</v>
+        <v>9.573687336067119</v>
       </c>
       <c r="E21">
-        <v>16.04259442010239</v>
+        <v>18.64622645827806</v>
       </c>
       <c r="F21">
-        <v>37.00524963047065</v>
+        <v>29.63274314357017</v>
       </c>
       <c r="G21">
-        <v>45.41132732027985</v>
+        <v>50.8302698984169</v>
       </c>
       <c r="H21">
-        <v>17.73456984580611</v>
+        <v>13.14109306219324</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.43131597891505</v>
+        <v>11.05515836251824</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.86705083781354</v>
+        <v>22.35364414239059</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.20040248567215</v>
+        <v>31.85901890348248</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.170700677810578</v>
+        <v>9.836093847145333</v>
       </c>
       <c r="E22">
-        <v>16.21463587672051</v>
+        <v>19.15790052091068</v>
       </c>
       <c r="F22">
-        <v>36.93692341481859</v>
+        <v>30.54565349696243</v>
       </c>
       <c r="G22">
-        <v>45.60144090793676</v>
+        <v>52.98744683422767</v>
       </c>
       <c r="H22">
-        <v>17.70562799040234</v>
+        <v>13.47391034794383</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.49315614340208</v>
+        <v>11.29148515696853</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.18577819226134</v>
+        <v>23.19769064703813</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.99645567411907</v>
+        <v>31.23605505057882</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.129880373515281</v>
+        <v>9.696363341658364</v>
       </c>
       <c r="E23">
-        <v>16.12302339177628</v>
+        <v>18.88575217385335</v>
       </c>
       <c r="F23">
-        <v>36.97202748309454</v>
+        <v>30.05275492627083</v>
       </c>
       <c r="G23">
-        <v>45.49800173094974</v>
+        <v>51.8334068100402</v>
       </c>
       <c r="H23">
-        <v>17.7205683703766</v>
+        <v>13.29405705170623</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.46013765368379</v>
+        <v>11.16553756885109</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.01643312996597</v>
+        <v>22.74981754215837</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.21142827051629</v>
+        <v>28.82492249440913</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.972966471286721</v>
+        <v>9.159740173750585</v>
       </c>
       <c r="E24">
-        <v>15.7716761776735</v>
+        <v>17.83414358227835</v>
       </c>
       <c r="F24">
-        <v>37.13474351357461</v>
+        <v>28.30777215037227</v>
       </c>
       <c r="G24">
-        <v>45.14970895870773</v>
+        <v>47.59129287184173</v>
       </c>
       <c r="H24">
-        <v>17.78822772224484</v>
+        <v>12.66042005881747</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.33543809744562</v>
+        <v>10.68443400520745</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.35869909128308</v>
+        <v>20.99502594013422</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.34187976437507</v>
+        <v>26.18626932086703</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.799176042018562</v>
+        <v>8.563291379499351</v>
       </c>
       <c r="E25">
-        <v>15.38476587250175</v>
+        <v>16.65476309133694</v>
       </c>
       <c r="F25">
-        <v>37.37268040220974</v>
+        <v>26.6708827656364</v>
       </c>
       <c r="G25">
-        <v>44.86750373065513</v>
+        <v>43.2507776547509</v>
       </c>
       <c r="H25">
-        <v>17.88453583877779</v>
+        <v>12.07084843716042</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.20207752288216</v>
+        <v>10.15682248240217</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.61741554619385</v>
+        <v>18.97021018291921</v>
       </c>
       <c r="M25">
         <v>0</v>
